--- a/Funções+Básicas01.xlsx
+++ b/Funções+Básicas01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbb0bfc3935069fc/Documentos/GitHub/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{88C4446D-849C-4345-A65E-4A697951C674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3367C64A-A5F5-4F40-BFE4-FC237347E6D4}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{88C4446D-849C-4345-A65E-4A697951C674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34906B67-7ACA-4F74-828E-E60E432666DD}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="959" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="14" r:id="rId1"/>
@@ -3630,7 +3630,7 @@
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4054,6 +4054,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="45" fillId="14" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4360,7 +4361,7 @@
     <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="39" fillId="24" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
@@ -4391,14 +4392,7 @@
     <cellStyle name="Porcentagem" xfId="25" builtinId="5"/>
     <cellStyle name="Saída" xfId="26" builtinId="21"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
@@ -4421,6 +4415,42 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4621,32 +4651,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -7003,30 +7007,53 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="A5:E25" totalsRowShown="0" headerRowDxfId="15" headerRowCellStyle="Ênfase2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0582C7C-EC95-42BB-91AE-8D4F0B78A32D}" name="TabMercadoria" displayName="TabMercadoria" ref="A4:D26" totalsRowShown="0">
+  <autoFilter ref="A4:D26" xr:uid="{C0582C7C-EC95-42BB-91AE-8D4F0B78A32D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E7D6D78C-B467-4E16-8D82-56425C45E5FA}" name="Mercadoria"/>
+    <tableColumn id="2" xr3:uid="{948C044B-44B7-40BD-9962-37DC798D4A5E}" name="Valor"/>
+    <tableColumn id="3" xr3:uid="{2970A94B-24CA-4027-8B74-F1CF59E1D144}" name="Desconto"/>
+    <tableColumn id="4" xr3:uid="{08720408-074F-4177-A336-AEF299C69926}" name="Total" dataDxfId="2">
+      <calculatedColumnFormula>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="A5:E25" totalsRowShown="0" headerRowDxfId="16" headerRowCellStyle="Ênfase2">
   <autoFilter ref="A5:E25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Código" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Produtos" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Preço de Venda" dataDxfId="12" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Qtd. Vendidas" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Código" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Produtos" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Preço de Venda" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Qtd. Vendidas" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total" dataDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="A3:F12" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="A3:F12" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A3:F12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Cód. Prod." dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Descrição" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Data Compra" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Valor a prazo" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parcelas" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Vr. da Prest." dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Cód. Prod." dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Descrição" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Data Compra" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Valor a prazo" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Parcelas" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Vr. da Prest." dataDxfId="0">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7395,12 +7422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="256" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="257"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="258"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="57"/>
@@ -7495,12 +7522,12 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="258" t="s">
+      <c r="A10" s="259" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="258"/>
-      <c r="C10" s="258"/>
-      <c r="D10" s="258"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="148" t="s">
@@ -7625,21 +7652,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="260" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="261" t="s">
+      <c r="B3" s="262" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="65" t="s">
@@ -7737,20 +7764,20 @@
       <c r="E10" s="64"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="260" t="s">
+      <c r="A13" s="261" t="s">
         <v>350</v>
       </c>
-      <c r="B13" s="260"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="261"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="260"/>
-      <c r="B14" s="260"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
+      <c r="A14" s="261"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1"/>
   </sheetData>
@@ -7760,7 +7787,7 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Aprovado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7788,13 +7815,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="263" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="75" t="s">
@@ -7949,20 +7976,20 @@
       <c r="E12" s="20"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="263" t="s">
+      <c r="A15" s="264" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="263"/>
-      <c r="C15" s="263"/>
-      <c r="D15" s="264">
+      <c r="B15" s="264"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="265">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="263"/>
-      <c r="B16" s="263"/>
-      <c r="C16" s="263"/>
-      <c r="D16" s="264"/>
+      <c r="A16" s="264"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7992,12 +8019,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="266" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="76" t="s">
@@ -8070,18 +8097,18 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="267" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
+      <c r="A12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8128,28 +8155,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="268" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="269" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
     </row>
     <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="270" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="269"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8648,18 +8675,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="271" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="6"/>
-      <c r="F2" s="271" t="s">
+      <c r="F2" s="272" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="271"/>
+      <c r="G2" s="272"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" s="86" t="s">
@@ -8930,18 +8957,18 @@
       <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="274" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
       <c r="E2" s="133"/>
       <c r="F2" s="128"/>
-      <c r="G2" s="272" t="s">
+      <c r="G2" s="273" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="272"/>
+      <c r="H2" s="273"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="130"/>
@@ -9082,10 +9109,10 @@
       <c r="D11" s="130"/>
       <c r="E11" s="128"/>
       <c r="F11" s="128"/>
-      <c r="G11" s="272" t="s">
+      <c r="G11" s="273" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="272"/>
+      <c r="H11" s="273"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="130">
@@ -9301,11 +9328,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="275" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
       <c r="D1" s="121"/>
       <c r="E1" s="121"/>
       <c r="F1" s="121"/>
@@ -9313,9 +9340,9 @@
       <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="278"/>
-      <c r="B2" s="279"/>
-      <c r="C2" s="280"/>
+      <c r="A2" s="279"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="281"/>
       <c r="D2" s="121"/>
       <c r="E2" s="121"/>
       <c r="F2" s="121"/>
@@ -9390,11 +9417,11 @@
       <c r="C7" s="124"/>
       <c r="D7" s="121"/>
       <c r="E7" s="121"/>
-      <c r="F7" s="275" t="s">
+      <c r="F7" s="276" t="s">
         <v>304</v>
       </c>
-      <c r="G7" s="276"/>
-      <c r="H7" s="277"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="278"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="124" t="s">
@@ -9627,16 +9654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="281" t="s">
+      <c r="A1" s="282" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="F1" s="282" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="F1" s="283" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="283"/>
-      <c r="H1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="285"/>
     </row>
     <row r="2" spans="1:8">
       <c r="F2" s="91" t="s">
@@ -9800,26 +9827,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="293"/>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
+      <c r="A2" s="294"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
@@ -9865,11 +9892,11 @@
       <c r="E4" s="101"/>
       <c r="F4" s="101"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="285" t="s">
+      <c r="H4" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
+      <c r="I4" s="286"/>
+      <c r="J4" s="286"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="99" t="s">
@@ -9887,10 +9914,10 @@
       <c r="E5" s="101"/>
       <c r="F5" s="101"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="286" t="s">
+      <c r="H5" s="287" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="286"/>
+      <c r="I5" s="287"/>
       <c r="J5" s="103" t="s">
         <v>71</v>
       </c>
@@ -10029,11 +10056,11 @@
       <c r="E11" s="101"/>
       <c r="F11" s="101"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="289" t="s">
+      <c r="H11" s="290" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="289"/>
-      <c r="J11" s="290"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="291"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="99" t="s">
@@ -10051,10 +10078,10 @@
       <c r="E12" s="101"/>
       <c r="F12" s="101"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="287" t="s">
+      <c r="H12" s="288" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="288"/>
+      <c r="I12" s="289"/>
       <c r="J12" s="109" t="s">
         <v>69</v>
       </c>
@@ -10250,36 +10277,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="211" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
     </row>
     <row r="2" spans="1:7" ht="8.25" customHeight="1">
-      <c r="A2" s="211"/>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
+      <c r="A2" s="212"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="210"/>
     </row>
     <row r="4" spans="1:7" ht="9" customHeight="1">
-      <c r="A4" s="212"/>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
+      <c r="A4" s="213"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
@@ -10312,12 +10339,12 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" ref="E6:E12" si="0">SUM(B6:D6)</f>
         <v>18</v>
       </c>
-      <c r="G6" s="309">
+      <c r="G6" s="207">
         <f ca="1">NOW()</f>
-        <v>45098.524052199071</v>
+        <v>45098.566696875001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10334,7 +10361,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
@@ -10352,7 +10379,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G8" t="s">
@@ -10373,7 +10400,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="G9" t="s">
@@ -10394,7 +10421,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <f>SUM(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -10412,7 +10439,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="3">
-        <f>SUM(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -10430,7 +10457,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <f>SUM(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -10482,12 +10509,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="296" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="117" t="s">
@@ -10544,11 +10571,11 @@
       <c r="D7" s="78"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="296" t="s">
+      <c r="A9" s="297" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="296"/>
-      <c r="C9" s="296"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="297"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="118" t="s">
@@ -10638,90 +10665,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.25">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="298" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
-      <c r="N1" s="297"/>
-      <c r="O1" s="297"/>
-      <c r="P1" s="297"/>
-      <c r="Q1" s="297"/>
-      <c r="R1" s="297"/>
-      <c r="S1" s="297"/>
-      <c r="T1" s="297"/>
-      <c r="U1" s="297"/>
-      <c r="V1" s="297"/>
-      <c r="W1" s="297"/>
-      <c r="X1" s="297"/>
-      <c r="Y1" s="297"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
+      <c r="R1" s="298"/>
+      <c r="S1" s="298"/>
+      <c r="T1" s="298"/>
+      <c r="U1" s="298"/>
+      <c r="V1" s="298"/>
+      <c r="W1" s="298"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="299" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
-      <c r="R2" s="299"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="299"/>
-      <c r="U2" s="299"/>
-      <c r="V2" s="299"/>
-      <c r="W2" s="299"/>
-      <c r="X2" s="299"/>
-      <c r="Y2" s="299"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
+      <c r="Q2" s="300"/>
+      <c r="R2" s="300"/>
+      <c r="S2" s="300"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="300"/>
+      <c r="Y2" s="300"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="152"/>
-      <c r="B3" s="300" t="s">
+      <c r="B3" s="301" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="300"/>
-      <c r="P3" s="300"/>
-      <c r="Q3" s="300"/>
-      <c r="R3" s="300"/>
-      <c r="S3" s="300"/>
-      <c r="T3" s="300"/>
-      <c r="U3" s="300"/>
-      <c r="V3" s="300"/>
-      <c r="W3" s="300"/>
-      <c r="X3" s="300"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="301"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="301"/>
+      <c r="Q3" s="301"/>
+      <c r="R3" s="301"/>
+      <c r="S3" s="301"/>
+      <c r="T3" s="301"/>
+      <c r="U3" s="301"/>
+      <c r="V3" s="301"/>
+      <c r="W3" s="301"/>
+      <c r="X3" s="301"/>
     </row>
     <row r="4" spans="1:27">
       <c r="B4" s="153" t="s">
@@ -11815,32 +11842,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="302" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
     </row>
     <row r="2" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A2" s="302"/>
-      <c r="B2" s="302"/>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
+      <c r="A2" s="303"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="304" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
     </row>
     <row r="4" spans="1:9" ht="8.25" customHeight="1">
       <c r="B4" s="159"/>
@@ -12176,17 +12203,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="305" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
       <c r="D1" s="182"/>
     </row>
     <row r="2" spans="1:4" ht="9.75" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
+      <c r="A2" s="307"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
       <c r="D2" s="182"/>
     </row>
     <row r="3" spans="1:4" ht="18">
@@ -12426,14 +12453,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="18.75">
-      <c r="B3" s="308" t="s">
+      <c r="B3" s="309" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="308"/>
-      <c r="F3" s="308" t="s">
+      <c r="C3" s="309"/>
+      <c r="F3" s="309" t="s">
         <v>413</v>
       </c>
-      <c r="G3" s="308"/>
+      <c r="G3" s="309"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12451,7 +12478,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12465,18 +12492,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="213"/>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="189"/>
@@ -12511,6 +12538,10 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="D5">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>39.9</v>
+      </c>
       <c r="H5" t="s">
         <v>420</v>
       </c>
@@ -12525,6 +12556,10 @@
       <c r="C6">
         <v>3.5</v>
       </c>
+      <c r="D6">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>76.400000000000006</v>
+      </c>
       <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:9">
@@ -12537,6 +12572,10 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>45.9</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="18.75">
       <c r="A8" t="s">
@@ -12548,10 +12587,17 @@
       <c r="C8">
         <v>4.5</v>
       </c>
+      <c r="D8">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>49.95</v>
+      </c>
       <c r="H8" s="191" t="s">
         <v>416</v>
       </c>
-      <c r="I8" s="192"/>
+      <c r="I8" s="192">
+        <f>SUM(TabMercadoria[Total])</f>
+        <v>2228.6000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -12563,6 +12609,10 @@
       <c r="C9">
         <v>10</v>
       </c>
+      <c r="D9">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>92.25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="18.75">
       <c r="A10" t="s">
@@ -12574,10 +12624,17 @@
       <c r="C10">
         <v>12</v>
       </c>
+      <c r="D10">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>177.9</v>
+      </c>
       <c r="H10" s="191" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="193"/>
+      <c r="I10" s="193">
+        <f>MAX(TabMercadoria[Total])</f>
+        <v>233.5</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -12589,6 +12646,10 @@
       <c r="C11">
         <v>4.3</v>
       </c>
+      <c r="D11">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>29.999999999999996</v>
+      </c>
       <c r="I11" s="190"/>
     </row>
     <row r="12" spans="1:9" ht="18.75">
@@ -12601,10 +12662,17 @@
       <c r="C12">
         <v>1.9</v>
       </c>
+      <c r="D12">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>83</v>
+      </c>
       <c r="H12" s="191" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="193"/>
+      <c r="I12" s="193">
+        <f>MIN(TabMercadoria[Total])</f>
+        <v>29.999999999999996</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -12616,6 +12684,10 @@
       <c r="C13">
         <v>3.9</v>
       </c>
+      <c r="D13">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="18.75">
       <c r="A14" t="s">
@@ -12627,10 +12699,17 @@
       <c r="C14">
         <v>5.5</v>
       </c>
+      <c r="D14">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>63</v>
+      </c>
       <c r="H14" s="191" t="s">
         <v>417</v>
       </c>
-      <c r="I14" s="193"/>
+      <c r="I14" s="193">
+        <f>LARGE(TabMercadoria[Total],2)</f>
+        <v>207.9</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -12642,6 +12721,10 @@
       <c r="C15">
         <v>4.5</v>
       </c>
+      <c r="D15">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>30.4</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="18.75">
       <c r="A16" t="s">
@@ -12653,10 +12736,17 @@
       <c r="C16">
         <v>5</v>
       </c>
+      <c r="D16">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>60.900000000000006</v>
+      </c>
       <c r="H16" s="191" t="s">
         <v>418</v>
       </c>
-      <c r="I16" s="193"/>
+      <c r="I16" s="193">
+        <f>SMALL(TabMercadoria[Total],2)</f>
+        <v>30.4</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -12668,6 +12758,10 @@
       <c r="C17">
         <v>6</v>
       </c>
+      <c r="D17">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>80.3</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="18.75">
       <c r="A18" t="s">
@@ -12679,10 +12773,17 @@
       <c r="C18">
         <v>5</v>
       </c>
+      <c r="D18">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>144.9</v>
+      </c>
       <c r="H18" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="I18" s="193"/>
+      <c r="I18" s="193">
+        <f>AVERAGE(TabMercadoria[Total])</f>
+        <v>101.30000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
@@ -12694,6 +12795,10 @@
       <c r="C19">
         <v>8</v>
       </c>
+      <c r="D19">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>172.9</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -12705,6 +12810,10 @@
       <c r="C20">
         <v>12</v>
       </c>
+      <c r="D20">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>186.5</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -12716,6 +12825,10 @@
       <c r="C21">
         <v>15</v>
       </c>
+      <c r="D21">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>233.5</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -12727,6 +12840,10 @@
       <c r="C22">
         <v>22</v>
       </c>
+      <c r="D22">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>207.9</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -12738,6 +12855,10 @@
       <c r="C23">
         <v>6</v>
       </c>
+      <c r="D23">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>69.5</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -12749,6 +12870,10 @@
       <c r="C24">
         <v>5</v>
       </c>
+      <c r="D24">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>70.5</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -12760,6 +12885,10 @@
       <c r="C25">
         <v>30</v>
       </c>
+      <c r="D25">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
@@ -12770,6 +12899,10 @@
       </c>
       <c r="C26">
         <v>50</v>
+      </c>
+      <c r="D26">
+        <f>TabMercadoria[[#This Row],[Valor]]-TabMercadoria[[#This Row],[Desconto]]</f>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12778,6 +12911,9 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12786,7 +12922,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12802,25 +12938,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="215" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="217" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="14"/>
@@ -12856,7 +12992,10 @@
       <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>224.5</v>
+      </c>
       <c r="H6" s="13" t="s">
         <v>421</v>
       </c>
@@ -12874,7 +13013,10 @@
       <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>79.900000000000006</v>
+      </c>
       <c r="H7" s="195"/>
     </row>
     <row r="8" spans="1:8">
@@ -12890,7 +13032,10 @@
       <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>149.69999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10">
@@ -12905,7 +13050,10 @@
       <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="196"/>
     </row>
     <row r="10" spans="1:8">
@@ -12921,7 +13069,10 @@
       <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>204.5</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10">
@@ -12936,7 +13087,10 @@
       <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="6">
@@ -12951,7 +13105,10 @@
       <c r="D12" s="6">
         <v>6</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>205.79999999999998</v>
+      </c>
       <c r="H12" s="195"/>
     </row>
     <row r="13" spans="1:8">
@@ -12967,7 +13124,10 @@
       <c r="D13" s="10">
         <v>8</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>679.2</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6">
@@ -12982,7 +13142,10 @@
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>140.69999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10">
@@ -12997,7 +13160,10 @@
       <c r="D15" s="10">
         <v>8</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>548</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6">
@@ -13012,7 +13178,10 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>34.9</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10">
@@ -13027,7 +13196,10 @@
       <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6">
@@ -13042,7 +13214,10 @@
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10">
@@ -13057,7 +13232,10 @@
       <c r="D19" s="10">
         <v>12</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>1798.8000000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6">
@@ -13072,7 +13250,10 @@
       <c r="D20" s="6">
         <v>7</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>1266.3</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10">
@@ -13087,7 +13268,10 @@
       <c r="D21" s="10">
         <v>2</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>397</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="6">
@@ -13102,7 +13286,10 @@
       <c r="D22" s="6">
         <v>4</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>994</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10">
@@ -13117,7 +13304,10 @@
       <c r="D23" s="10">
         <v>3</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>689.7</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="6">
@@ -13132,7 +13322,10 @@
       <c r="D24" s="6">
         <v>8</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>604</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10">
@@ -13147,7 +13340,10 @@
       <c r="D25" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11">
+        <f>Tabela2[[#This Row],[Preço de Venda]]*Tabela2[[#This Row],[Qtd. Vendidas]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1">
       <c r="E26" s="12"/>
@@ -13156,7 +13352,10 @@
       <c r="D27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="37">
+        <f>SUM(E6:E26)</f>
+        <v>8017</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13176,8 +13375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13191,22 +13390,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="218" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="219"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="220"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="220"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="198" t="s">
@@ -13247,7 +13446,10 @@
       <c r="E4" s="46">
         <v>5</v>
       </c>
-      <c r="F4" s="197"/>
+      <c r="F4" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>103.6</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="49">
@@ -13265,7 +13467,10 @@
       <c r="E5" s="47">
         <v>15</v>
       </c>
-      <c r="F5" s="205"/>
+      <c r="F5" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>39.333333333333336</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="50">
@@ -13283,7 +13488,10 @@
       <c r="E6" s="46">
         <v>5</v>
       </c>
-      <c r="F6" s="197"/>
+      <c r="F6" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>89.8</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="49">
@@ -13301,7 +13509,10 @@
       <c r="E7" s="47">
         <v>6</v>
       </c>
-      <c r="F7" s="205"/>
+      <c r="F7" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>78.166666666666671</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="50">
@@ -13319,7 +13530,10 @@
       <c r="E8" s="46">
         <v>12</v>
       </c>
-      <c r="F8" s="197"/>
+      <c r="F8" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>31.666666666666668</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="49">
@@ -13337,7 +13551,10 @@
       <c r="E9" s="47">
         <v>2</v>
       </c>
-      <c r="F9" s="205"/>
+      <c r="F9" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>210</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="50">
@@ -13355,7 +13572,10 @@
       <c r="E10" s="46">
         <v>3</v>
       </c>
-      <c r="F10" s="197"/>
+      <c r="F10" s="197">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>93.333333333333329</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="49">
@@ -13373,7 +13593,10 @@
       <c r="E11" s="47">
         <v>6</v>
       </c>
-      <c r="F11" s="205"/>
+      <c r="F11" s="205">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="200">
@@ -13391,7 +13614,10 @@
       <c r="E12" s="204">
         <v>12</v>
       </c>
-      <c r="F12" s="206"/>
+      <c r="F12" s="206">
+        <f>Tabela3[[#This Row],[Valor a prazo]]/Tabela3[[#This Row],[Parcelas]]</f>
+        <v>38.333333333333336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13411,8 +13637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13425,18 +13651,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="224" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
     </row>
     <row r="3" spans="1:4" ht="8.25" customHeight="1">
-      <c r="A3" s="224"/>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="21" t="s">
@@ -13468,18 +13694,18 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="224" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
     </row>
     <row r="9" spans="1:4" ht="9" customHeight="1">
-      <c r="A9" s="225"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="227"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="228"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
@@ -13511,10 +13737,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="223" t="s">
+      <c r="A13" s="224" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="223"/>
+      <c r="B13" s="224"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
@@ -13585,7 +13811,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G6" sqref="G6:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13595,26 +13821,26 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="230" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="230"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="26">
         <v>0.02</v>
       </c>
@@ -13658,8 +13884,14 @@
       <c r="E6" s="54">
         <v>80</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="F6" s="310">
+        <f>E6*C6</f>
+        <v>400</v>
+      </c>
+      <c r="G6" s="310">
+        <f>F6*$C$3</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="52">
@@ -13677,8 +13909,14 @@
       <c r="E7" s="54">
         <v>65</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="F7" s="310">
+        <f t="shared" ref="F7:F13" si="0">E7*C7</f>
+        <v>650</v>
+      </c>
+      <c r="G7" s="310">
+        <f t="shared" ref="G7:G13" si="1">F7*$C$3</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="52">
@@ -13696,8 +13934,14 @@
       <c r="E8" s="54">
         <v>80</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="F8" s="310">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G8" s="310">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="52">
@@ -13715,8 +13959,14 @@
       <c r="E9" s="54">
         <v>75</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="F9" s="310">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="G9" s="310">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="52">
@@ -13734,8 +13984,14 @@
       <c r="E10" s="54">
         <v>70</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="F10" s="310">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G10" s="310">
+        <f t="shared" si="1"/>
+        <v>11.200000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="52">
@@ -13753,8 +14009,14 @@
       <c r="E11" s="54">
         <v>40</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="F11" s="310">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G11" s="310">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="52">
@@ -13772,8 +14034,14 @@
       <c r="E12" s="54">
         <v>45</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="310">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="G12" s="310">
+        <f t="shared" si="1"/>
+        <v>16.2</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="52">
@@ -13791,8 +14059,14 @@
       <c r="E13" s="54">
         <v>20</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="310">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="310">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
@@ -13811,8 +14085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="67" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13824,12 +14098,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1"/>
@@ -14107,9 +14381,18 @@
       <c r="A23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="28">
+        <f>SUM(B4:B22)</f>
+        <v>39.529999999999994</v>
+      </c>
+      <c r="C23" s="28">
+        <f>SUM(C4:C22)</f>
+        <v>36.89</v>
+      </c>
+      <c r="D23" s="28">
+        <f>SUM(D4:D22)</f>
+        <v>37.951000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14153,116 +14436,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="232"/>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
-      <c r="O1" s="234"/>
+      <c r="A1" s="233"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="235"/>
     </row>
     <row r="2" spans="1:15" ht="18">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="236" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="243"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="245"/>
+      <c r="A3" s="244"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
+      <c r="I3" s="245"/>
+      <c r="J3" s="245"/>
+      <c r="K3" s="245"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="246"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="236">
+      <c r="B4" s="237">
         <v>481873</v>
       </c>
-      <c r="C4" s="236"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="246"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="248"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
+      <c r="O4" s="249"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="238" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="251"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="251"/>
+      <c r="M5" s="251"/>
+      <c r="N5" s="251"/>
+      <c r="O5" s="252"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="240"/>
-      <c r="B6" s="241"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="241"/>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="252"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="253"/>
-      <c r="O6" s="254"/>
+      <c r="A6" s="241"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="253"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="254"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="255"/>
     </row>
     <row r="7" spans="1:15" ht="64.5" customHeight="1">
       <c r="A7" s="140" t="s">
